--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -205,7 +205,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-08-31 02:22:41 PM</t>
+    <t>Generated: 2023-08-31 03:53:26 PM</t>
   </si>
 </sst>
 </file>
